--- a/文档/项目组内文档/LuckyGirls组进度表.xlsx
+++ b/文档/项目组内文档/LuckyGirls组进度表.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="8-3" sheetId="1" r:id="rId1"/>
-    <sheet name="8-4" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -96,50 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排班页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄春飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册、登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册页面用户名验证没完成，登录页面只是排版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成弹话框、数据的增加未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成该页面的部分组件的增删功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约的详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问诊信息里的医嘱和缴费选项卡相应的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现了对数据的增加，校验，统计价钱的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成页面的排版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排班模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,35 +123,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>导航条、注册、登录、首页、个人信息、修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成该页面医嘱选项卡的增删改功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成该模块的会员账号小模块的账户充值功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册、登录基本功能完成,导航条部分功能实现，路由的搭建修改完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成排班的编辑功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约时间和预约医生的对话框，修改之前做的页面的样式</t>
+    <t>无（请假）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无（请假）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的提交，form表单设计和校验，重置功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息页面的排版，功能未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成排班的一周的动态日期功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,13 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -364,6 +319,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -385,7 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -690,7 +645,7 @@
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,109 +663,109 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -831,14 +786,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -862,7 +817,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -870,17 +825,17 @@
       <c r="C14" s="3">
         <v>42957</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -893,12 +848,12 @@
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -911,12 +866,12 @@
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -929,45 +884,45 @@
         <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>42953</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="17">
         <v>42950</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
         <v>42957</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -981,40 +936,40 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="2"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="2"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -1110,288 +1065,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3">
-        <v>42950</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42959</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42951</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42950</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3">
-        <v>42953</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/文档/项目组内文档/LuckyGirls组进度表.xlsx
+++ b/文档/项目组内文档/LuckyGirls组进度表.xlsx
@@ -135,23 +135,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无（请假）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无（请假）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据的提交，form表单设计和校验，重置功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息页面的排版，功能未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成排班的一周的动态日期功能</t>
+    <t>完成加诊排班和上下周日期变化的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人信息页，使用到vuex实现不同页面数据共享和更新，实践到深拷贝和浅拷贝的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现详情页面的预约医生和预约时间的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对各个页面的功能进行完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成会员帐号中的类型变更，家人共享和会员积分模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -848,7 +848,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -866,7 +866,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -922,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">

--- a/文档/项目组内文档/LuckyGirls组进度表.xlsx
+++ b/文档/项目组内文档/LuckyGirls组进度表.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="8-3" sheetId="1" r:id="rId1"/>
+    <sheet name="8-8" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -29,9 +29,6 @@
     <t>研发周期</t>
   </si>
   <si>
-    <t>2017/8/1 -- 2017/8/14</t>
-  </si>
-  <si>
     <t>研发人员</t>
   </si>
   <si>
@@ -131,27 +128,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导航条、注册、登录、首页、个人信息、修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成加诊排班和上下周日期变化的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成个人信息页，使用到vuex实现不同页面数据共享和更新，实践到深拷贝和浅拷贝的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现详情页面的预约医生和预约时间的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对各个页面的功能进行完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成会员帐号中的类型变更，家人共享和会员积分模块</t>
+    <t>完成面包屑导航，首页实现了部分功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航条、注册、登录、首页、个人信息、面包屑导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改之前页面的样式，完善功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成会员积分和会员套餐功能块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/8/1 -- 2017/8/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -678,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -692,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -716,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -727,10 +724,10 @@
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -741,10 +738,10 @@
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -755,10 +752,10 @@
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -787,7 +784,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -797,22 +794,22 @@
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -820,32 +817,32 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>42957</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>42957</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>33</v>
@@ -853,46 +850,46 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>42957</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>42957</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3">
         <v>42953</v>
@@ -901,28 +898,28 @@
         <v>42950</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
         <v>42957</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">

--- a/文档/项目组内文档/LuckyGirls组进度表.xlsx
+++ b/文档/项目组内文档/LuckyGirls组进度表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -128,27 +128,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成面包屑导航，首页实现了部分功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导航条、注册、登录、首页、个人信息、面包屑导航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完善功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改之前页面的样式，完善功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成会员积分和会员套餐功能块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017/8/1 -- 2017/8/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能已完成，有一点bug未修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善功能，写文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善功能，写文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善功能，写文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,16 +286,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -304,7 +305,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -642,7 +642,7 @@
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,112 +657,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -783,38 +783,38 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
+      <c r="A14" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -822,12 +822,12 @@
       <c r="C14" s="3">
         <v>42957</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -840,12 +840,14 @@
       <c r="C15" s="3">
         <v>42957</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="15">
+        <v>42956</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>33</v>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -858,12 +860,14 @@
       <c r="C16" s="3">
         <v>42957</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="15">
+        <v>42956</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -876,25 +880,27 @@
       <c r="C17" s="3">
         <v>42957</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="15">
+        <v>42956</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>33</v>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="3">
         <v>42953</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>42950</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -914,59 +920,61 @@
       <c r="C19" s="3">
         <v>42957</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -974,7 +982,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
@@ -982,7 +990,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
@@ -990,7 +998,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
@@ -998,7 +1006,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
@@ -1006,7 +1014,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
@@ -1014,7 +1022,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
@@ -1022,7 +1030,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
@@ -1030,7 +1038,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
@@ -1038,7 +1046,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>

--- a/文档/项目组内文档/LuckyGirls组进度表.xlsx
+++ b/文档/项目组内文档/LuckyGirls组进度表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会员模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,23 +132,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本功能已完成，有一点bug未修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善功能，写文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善功能，写文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善功能，写文档</t>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +189,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,25 +274,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -332,10 +306,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -642,7 +616,7 @@
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,109 +634,109 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="B6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -783,14 +757,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -814,7 +788,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -822,7 +796,9 @@
       <c r="C14" s="3">
         <v>42957</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="14">
+        <v>42957</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
@@ -840,14 +816,14 @@
       <c r="C15" s="3">
         <v>42957</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>42956</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -860,14 +836,14 @@
       <c r="C16" s="3">
         <v>42957</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>42956</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -880,14 +856,14 @@
       <c r="C17" s="3">
         <v>42957</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>42956</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -900,19 +876,19 @@
       <c r="C18" s="3">
         <v>42953</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>42950</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
@@ -920,14 +896,14 @@
       <c r="C19" s="3">
         <v>42957</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>42956</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -941,40 +917,40 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
